--- a/Purchasing/Team_14-1_CAW.xlsx
+++ b/Purchasing/Team_14-1_CAW.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derkw\Documents\ME_3230\Parts Purchase\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\derkw\Documents\GitHub\mechatronics-goats\Purchasing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7091FD-C0C9-4B26-9C8A-847A9BF1442C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A513504-181B-46FC-A21A-006A45844397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="620" windowWidth="23110" windowHeight="13680" xr2:uid="{CB16570C-9DD7-4F77-AE60-9DEA53993D96}"/>
+    <workbookView xWindow="1140" yWindow="720" windowWidth="23110" windowHeight="13680" xr2:uid="{CB16570C-9DD7-4F77-AE60-9DEA53993D96}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>Item</t>
   </si>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>8mm x 150mm Stainless Steel Round Rod</t>
-  </si>
-  <si>
-    <t>14-1</t>
   </si>
   <si>
     <t>Derek Williams</t>
@@ -255,7 +252,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -264,6 +261,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -279,14 +282,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -605,7 +600,7 @@
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -618,27 +613,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="9"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="10"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="16"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="11" t="s">
+      <c r="B2" s="2">
+        <v>14.1</v>
+      </c>
+      <c r="F2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="12"/>
+      <c r="G2" s="18"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F3" s="5" t="s">
@@ -676,13 +671,13 @@
       <c r="A6" s="7">
         <v>45322</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>14</v>
+      <c r="C6" t="s">
+        <v>13</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="8">
         <v>0.55000000000000004</v>
       </c>
       <c r="F6" s="4">
@@ -690,205 +685,205 @@
         <v>0.55000000000000004</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A7" s="15">
+      <c r="A7" s="9">
         <v>45324</v>
       </c>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="10">
         <v>1</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="11">
         <v>1.8</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="12">
         <f>D7*E7</f>
         <v>1.8</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>13</v>
+      <c r="G7" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A8" s="15">
+      <c r="A8" s="9">
         <v>45324</v>
       </c>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="16">
+      <c r="B8" s="10"/>
+      <c r="C8" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="10">
         <v>2</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="10">
         <v>27.55</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="12">
         <f>D8*E8</f>
         <v>55.1</v>
       </c>
-      <c r="G8" s="16" t="s">
-        <v>13</v>
+      <c r="G8" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A9" s="15">
+      <c r="A9" s="9">
         <v>45324</v>
       </c>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="10">
+        <v>4</v>
+      </c>
+      <c r="E9" s="10">
+        <v>47.79</v>
+      </c>
+      <c r="F9" s="12">
+        <f t="shared" ref="F9:F15" si="0">D9*E9</f>
+        <v>191.16</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="9">
+        <v>45324</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D9" s="16">
-        <v>4</v>
-      </c>
-      <c r="E9" s="17">
-        <v>47.79</v>
-      </c>
-      <c r="F9" s="19">
-        <f t="shared" ref="F9:F20" si="0">D9*E9</f>
-        <v>191.16</v>
-      </c>
-      <c r="G9" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A10" s="15">
-        <v>45324</v>
-      </c>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="16">
+      <c r="D10" s="10">
         <v>1</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="11">
         <v>21</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="12">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="G10" s="16" t="s">
-        <v>13</v>
+      <c r="G10" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A11" s="15">
+      <c r="A11" s="9">
         <v>45324</v>
       </c>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="16">
+      <c r="B11" s="10"/>
+      <c r="C11" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="10">
         <v>1</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="10">
         <v>16.989999999999998</v>
       </c>
-      <c r="F11" s="19">
+      <c r="F11" s="12">
         <f t="shared" si="0"/>
         <v>16.989999999999998</v>
       </c>
-      <c r="G11" s="16" t="s">
-        <v>13</v>
+      <c r="G11" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="15">
+      <c r="A12" s="9">
         <v>45324</v>
       </c>
-      <c r="B12" s="16"/>
-      <c r="C12" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="16">
+      <c r="B12" s="10"/>
+      <c r="C12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="10">
         <v>1</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="10">
         <v>0</v>
       </c>
-      <c r="F12" s="19">
+      <c r="F12" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G12" s="16" t="s">
-        <v>13</v>
+      <c r="G12" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="15">
+      <c r="A13" s="9">
         <v>45324</v>
       </c>
-      <c r="B13" s="16"/>
-      <c r="C13" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="16">
+      <c r="B13" s="10"/>
+      <c r="C13" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="10">
         <v>1</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="10">
         <v>2.92</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="12">
         <f t="shared" si="0"/>
         <v>2.92</v>
       </c>
-      <c r="G13" s="16" t="s">
-        <v>13</v>
+      <c r="G13" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="15">
+      <c r="A14" s="9">
         <v>45324</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="16">
+      <c r="B14" s="10"/>
+      <c r="C14" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="10">
         <v>1</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="10">
         <v>16.989999999999998</v>
       </c>
-      <c r="F14" s="19">
+      <c r="F14" s="12">
         <f t="shared" si="0"/>
         <v>16.989999999999998</v>
       </c>
-      <c r="G14" s="16" t="s">
-        <v>13</v>
+      <c r="G14" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="15">
+      <c r="A15" s="9">
         <v>45324</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="16">
+      <c r="B15" s="10"/>
+      <c r="C15" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="10">
         <v>1</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="10">
         <v>15.99</v>
       </c>
-      <c r="F15" s="19">
+      <c r="F15" s="12">
         <f t="shared" si="0"/>
         <v>15.99</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>13</v>
+      <c r="G15" s="10" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">
